--- a/biology/Virologie/Coronavirus_du_béluga/Coronavirus_du_béluga.xlsx
+++ b/biology/Virologie/Coronavirus_du_béluga/Coronavirus_du_béluga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coronavirus_du_b%C3%A9luga</t>
+          <t>Coronavirus_du_béluga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">BWCoV
-Le coronavirus du béluga (nom scientifique Beluga whale coronavirus, acronyme BWCoV) est un coronavirus du genre Gammacoronavirus et du sous-genre Segacovirus. Il s'agit d'un virus à ARN, découvert par séquençage du génome dans le foie d'un seul béluga décédé et décrit pour la première fois en 2008[2]; ce fut la première description du génome complet d'un coronavirus trouvé chez un mammifère marin. 
+Le coronavirus du béluga (nom scientifique Beluga whale coronavirus, acronyme BWCoV) est un coronavirus du genre Gammacoronavirus et du sous-genre Segacovirus. Il s'agit d'un virus à ARN, découvert par séquençage du génome dans le foie d'un seul béluga décédé et décrit pour la première fois en 2008; ce fut la première description du génome complet d'un coronavirus trouvé chez un mammifère marin. 
 Le béluga, un mâle né en captivité, est mort à l'âge de 13 ans après une courte maladie caractérisée par une atteinte pulmonaire généralisée et une insuffisance hépatique aiguë terminale. Le foie montrait des signes pathologiques, y compris des zones de nécrose. La microscopie électronique a montré de nombreuses particules virales rondes mesurant environ 60 à 80 nm dans le cytoplasme hépatique, mais il n'a pas été possible de confirmer si elles correspondaient à l'ARN identifié. On ne sait pas si le béluga est l'hôte naturel de ce virus. 
-Une analyse génétique a montré que le virus était très divergent des autres coronavirus, sauf de ceux du genre Gammacoronavirus[2].  Un virus étroitement apparenté, qui pourrait avoir divergé de BWCoV vers 1959, a toutefois été signalé en 2014 chez des grands dauphins indo-pacifiques Tursiops aduncus, sans leur causer de symptômes apparents: les auteurs, qui l'ont nommé "Bottlenose dolphin coronavirus" (BdCoV), proposent que les deux soient inclus dans la même espèce, le coronavirus des cétacés Cetacean coronavirus[3].
+Une analyse génétique a montré que le virus était très divergent des autres coronavirus, sauf de ceux du genre Gammacoronavirus.  Un virus étroitement apparenté, qui pourrait avoir divergé de BWCoV vers 1959, a toutefois été signalé en 2014 chez des grands dauphins indo-pacifiques Tursiops aduncus, sans leur causer de symptômes apparents: les auteurs, qui l'ont nommé "Bottlenose dolphin coronavirus" (BdCoV), proposent que les deux soient inclus dans la même espèce, le coronavirus des cétacés Cetacean coronavirus.
 </t>
         </is>
       </c>
